--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
@@ -148,13 +148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完成</t>
-    <rPh sb="0" eb="2">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>誕生日のリスト</t>
     <rPh sb="0" eb="3">
       <t>タンジョウビ</t>
@@ -162,14 +155,59 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日付のページ</t>
+    <t>有名人のDB作成</t>
+    <rPh sb="0" eb="3">
+      <t>ユウメイジン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付のページ作成</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カレンダーのサポート</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBからデータ引っ張ってきて表示させる処理</t>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>パ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成予定</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト変更・ほかの人のサポートしたり</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒト</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -275,11 +313,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -310,7 +348,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:colOff>1771650</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -322,7 +360,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2552700" y="647700"/>
-          <a:ext cx="2343150" cy="0"/>
+          <a:ext cx="2971800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -360,7 +398,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:colOff>1790700</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -372,7 +410,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2552700" y="809625"/>
-          <a:ext cx="2343150" cy="0"/>
+          <a:ext cx="2990850" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -423,6 +461,156 @@
         <a:xfrm>
           <a:off x="2562225" y="981075"/>
           <a:ext cx="1200150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620125" y="819150"/>
+          <a:ext cx="1162050" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8629650" y="647700"/>
+          <a:ext cx="1143000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1838325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="1009650"/>
+          <a:ext cx="4191000" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -741,15 +929,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="14.25" thickBot="1"/>
@@ -757,73 +946,75 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="2:12" ht="14.25" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>15</v>
@@ -833,37 +1024,39 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="2:12" ht="14.25" thickBot="1">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="18315" windowHeight="8505"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
@@ -207,6 +207,26 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間発表</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字化けの修正</t>
+    <rPh sb="0" eb="3">
+      <t>モジバ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -306,7 +326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,6 +347,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,8 +626,8 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -610,7 +639,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5591175" y="1009650"/>
-          <a:ext cx="4191000" cy="0"/>
+          <a:ext cx="5372100" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -929,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1011,8 +1040,12 @@
         <v>21</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="J4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1036,8 +1069,8 @@
         <v>19</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -1056,19 +1089,21 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="J4:J6"/>
     <mergeCell ref="K4:K6"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
